--- a/predicciones.xlsx
+++ b/predicciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E51289-64BA-4C5B-AE6E-49C862E3BB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE97CE3-DFB8-49FF-86D7-8AE9279B5D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C457EA4-315B-40DF-9528-D2AC4AB227CD}"/>
+    <workbookView xWindow="4236" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{4C457EA4-315B-40DF-9528-D2AC4AB227CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>fecha</t>
   </si>
   <si>
     <t>precio_kwh</t>
+  </si>
+  <si>
+    <t>IPC</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,7 +436,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
